--- a/public/excel/data_streamer.xlsx
+++ b/public/excel/data_streamer.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rians\intellipark_VSCODE\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269B6FF1-865C-48BF-B37E-0D118EE1EE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B505269-38B5-48CD-B389-BAE74A4FF01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
-  <si>
-    <t>green</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>Channels</t>
   </si>
@@ -162,10 +159,16 @@
     <t>Historical Data</t>
   </si>
   <si>
-    <t>FA22FFF5-951C-4D38-9AAE-8199B246032D</t>
-  </si>
-  <si>
-    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH5","IsGhost":false,"Name":"CH5","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH6","IsGhost":false,"Name":"CH6","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH7","IsGhost":false,"Name":"CH7","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH8","IsGhost":false,"Name":"CH8","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH9","IsGhost":false,"Name":"CH9","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH10","IsGhost":false,"Name":"CH10","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"FA22FFF5-951C-4D38-9AAE-8199B246032D","IsGenerated":true,"Name":"Arduino Uno","Version":null,"BaudRate":9600}</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>56B41BEA-1727-4363-B6F4-41A97CDCF701</t>
+  </si>
+  <si>
+    <t>{"Channels":[{"Description":null,"Id":null,"IsGhost":false,"Name":null,"Status":"Active","SubChannels":[{"Description":null,"Id":"CH1","IsGhost":false,"Name":"CH1","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH2","IsGhost":false,"Name":"CH2","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH3","IsGhost":false,"Name":"CH3","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH4","IsGhost":false,"Name":"CH4","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH5","IsGhost":false,"Name":"CH5","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH6","IsGhost":false,"Name":"CH6","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH7","IsGhost":false,"Name":"CH7","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH8","IsGhost":false,"Name":"CH8","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH9","IsGhost":false,"Name":"CH9","Status":"Active","SubChannels":[],"UnitOfMeasure":null},{"Description":null,"Id":"CH10","IsGhost":false,"Name":"CH10","Status":"Active","SubChannels":[],"UnitOfMeasure":null}],"UnitOfMeasure":null}],"Commands":[],"DataInterval":150,"Id":"56B41BEA-1727-4363-B6F4-41A97CDCF701","IsGenerated":true,"Name":"Arduino Uno","Version":null,"BaudRate":9600}</t>
+  </si>
+  <si>
+    <t>red</t>
   </si>
 </sst>
 </file>
@@ -574,6 +577,148 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -590,170 +735,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,10 +1653,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733C420A-342C-919C-E7BE-596D6DF3DE81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAC2C34-309E-CC09-B942-2E1AA9E296EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A22"/>
@@ -2117,10 +2120,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA8451E-84DF-4F71-A2C5-DDB3818FF13C}">
-  <dimension ref="A1:K22"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,404 +2136,409 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="37" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="B4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>45009.547057268515</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="F7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="I7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="J7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
-        <v>45002.570623900465</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:11" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="41" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>45009.546976087964</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>45009.54698190972</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>45009.54698777778</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>45009.5469934375</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>45009.54699923611</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>45009.547005081018</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>45009.547010925926</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>45009.547016712961</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>45009.547022361112</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>45009.54702834491</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>45009.547034074072</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>45009.547039895835</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>45009.547045659725</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>45009.547051493057</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>45009.547057268515</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
-        <v>45002.570541817127</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
-        <v>45002.570547708332</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
-        <v>45002.570553576392</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
-        <v>45002.5705594213</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
-        <v>45002.570565277776</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
-        <v>45002.570571157405</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
-        <v>45002.570577013888</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45">
-        <v>45002.570582893517</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
-        <v>45002.570588726849</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45">
-        <v>45002.570594641205</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
-        <v>45002.570600405095</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45">
-        <v>45002.570606284724</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
-        <v>45002.570612233794</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45">
-        <v>45002.570618067133</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46">
-        <v>45002.570623900465</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2573,6 +2582,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FD9E67-EB61-4C71-BBFA-97DA19D23A05}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2585,73 +2595,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2664,6 +2674,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A6A2B8-C95B-492B-A40F-1C408BB61E19}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2672,86 +2683,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="0.21875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="30.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="0.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="27">
+      <c r="A4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13">
         <v>150</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="14">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="A6" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="13">
         <v>15</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="13">
         <v>10</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2760,19 +2771,19 @@
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{2EA60A82-7957-4E61-87AA-6AD09BE8EF39}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 10 to 1000" prompt="Minimum duration between data readings, in milliseconds. 10 to 1000" sqref="C4" xr:uid="{8A5F80D4-B9A2-4F34-9F83-AF03FB612A8C}">
       <formula1>10</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{C364647D-A0D0-4F1D-BD3B-4187E68036E8}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000000" prompt="Number of historical data rows to keep. 1 to 1000000" sqref="C6" xr:uid="{C6AE0F0B-C73C-455B-BC02-882108FB93FE}">
       <formula1>1</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{0E855E62-21B9-4468-9093-DA2982A84A1B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value must be from 1 to 1000" prompt="Number of data columns to read. 1 to 1000" sqref="C8" xr:uid="{A05BDE82-50EE-4754-90E2-714D7ED5D6BD}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{D540A48C-6A4E-4C95-AFFA-2EC484AECFF5}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" sqref="C10" xr:uid="{3061F101-8C68-4DCB-AA1F-34C63FFEA743}">
       <formula1>"Newest first,Newest last"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2782,6 +2793,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75496C7-6DCB-49B2-808C-437599B2E341}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2803,236 +2815,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.4" x14ac:dyDescent="0.65">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="L1" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="L1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="I4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="45"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="I4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="15" t="s">
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="I7" s="44">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="45"/>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="I8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="18" t="s">
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="18" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="44">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="7">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="18" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="18" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45"/>
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="18" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="45"/>
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="18" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45"/>
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="18" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="39"/>
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
-      <c r="C15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22" t="s">
-        <v>13</v>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B3:H3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
@@ -3041,7 +3052,9 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excel/data_streamer.xlsx
+++ b/public/excel/data_streamer.xlsx
@@ -175,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm:ss.ff"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,12 @@
       <sz val="20"/>
       <color rgb="FF696969"/>
       <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -271,7 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -368,6 +374,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dotted">
         <color rgb="FFb4b4b4"/>
       </left>
@@ -518,13 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFc6c6c6"/>
       </left>
@@ -633,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -644,90 +650,93 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="8" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -737,10 +746,31 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -752,106 +782,85 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="13" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="13" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="14" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="14" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="14" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="14" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="14" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="13" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="13" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="12" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="12" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="13" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="13" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="13" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="14" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="14" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="13" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="13" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="13" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="13" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="13" applyFont="1" fillId="13" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="13" applyFont="1" fillId="13" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -872,8 +881,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:K5" displayName="TBL_CUR" name="TBL_CUR" id="1" totalsRowShown="0">
-  <autoFilter ref="A4:K5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K22" displayName="TBL_HST" name="TBL_HST" id="1" totalsRowShown="0">
+  <autoFilter ref="A7:K22">
     <filterColumn hiddenButton="1" colId="0"/>
     <filterColumn hiddenButton="1" colId="1"/>
     <filterColumn hiddenButton="1" colId="2"/>
@@ -904,8 +913,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K22" displayName="TBL_HST" name="TBL_HST" id="2" totalsRowShown="0">
-  <autoFilter ref="A7:K22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:K5" displayName="TBL_CUR" name="TBL_CUR" id="2" totalsRowShown="0">
+  <autoFilter ref="A4:K5">
     <filterColumn hiddenButton="1" colId="0"/>
     <filterColumn hiddenButton="1" colId="1"/>
     <filterColumn hiddenButton="1" colId="2"/>
@@ -1244,17 +1253,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="74" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="75" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="45" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1337,7 +1346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="62">
         <v>45009.547060185185</v>
       </c>
@@ -1354,7 +1363,7 @@
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33.45">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="64" t="s">
         <v>39</v>
       </c>
@@ -1404,7 +1413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="66">
         <v>45009.54697916667</v>
       </c>
@@ -1421,7 +1430,7 @@
       <c r="J8" s="67"/>
       <c r="K8" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="68">
         <v>45009.54697916667</v>
       </c>
@@ -1438,7 +1447,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="68">
         <v>45009.54699074074</v>
       </c>
@@ -1455,7 +1464,7 @@
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="68">
         <v>45009.54699074074</v>
       </c>
@@ -1472,7 +1481,7 @@
       <c r="J11" s="69"/>
       <c r="K11" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="68">
         <v>45009.547002314815</v>
       </c>
@@ -1489,7 +1498,7 @@
       <c r="J12" s="69"/>
       <c r="K12" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="68">
         <v>45009.547002314815</v>
       </c>
@@ -1506,7 +1515,7 @@
       <c r="J13" s="69"/>
       <c r="K13" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="68">
         <v>45009.54701388889</v>
       </c>
@@ -1523,7 +1532,7 @@
       <c r="J14" s="69"/>
       <c r="K14" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="68">
         <v>45009.54701388889</v>
       </c>
@@ -1540,7 +1549,7 @@
       <c r="J15" s="69"/>
       <c r="K15" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="68">
         <v>45009.54702546296</v>
       </c>
@@ -1557,7 +1566,7 @@
       <c r="J16" s="69"/>
       <c r="K16" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="68">
         <v>45009.54702546296</v>
       </c>
@@ -1574,7 +1583,7 @@
       <c r="J17" s="69"/>
       <c r="K17" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="68">
         <v>45009.54703703704</v>
       </c>
@@ -1591,7 +1600,7 @@
       <c r="J18" s="69"/>
       <c r="K18" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="68">
         <v>45009.54703703704</v>
       </c>
@@ -1608,7 +1617,7 @@
       <c r="J19" s="69"/>
       <c r="K19" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="68">
         <v>45009.54704861111</v>
       </c>
@@ -1625,7 +1634,7 @@
       <c r="J20" s="69"/>
       <c r="K20" s="69"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="68">
         <v>45009.54704861111</v>
       </c>
@@ -1661,7 +1670,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="72"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1672,9 +1681,9 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="72"/>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="74" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3"/>
@@ -1837,29 +1846,29 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="49.95000000000001" customFormat="1" s="6">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="4.5">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24">
       <c r="A4" s="40" t="s">
@@ -1871,15 +1880,15 @@
       <c r="C4" s="42">
         <v>150</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="4.5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24">
       <c r="A6" s="40" t="s">
@@ -1891,15 +1900,15 @@
       <c r="C6" s="42">
         <v>15</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="4.5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
       <c r="A8" s="40" t="s">
@@ -1911,15 +1920,15 @@
       <c r="C8" s="42">
         <v>10</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="4.5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
       <c r="A10" s="40" t="s">
@@ -1931,22 +1940,22 @@
       <c r="C10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="49.95000000000001" customFormat="1" s="6">
       <c r="A13" s="43" t="s">
@@ -1978,17 +1987,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="29" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="30" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="60.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="31" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="30" width="60.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="31" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="30" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="31" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="31" width="60.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="31" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="31" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="32" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="31" width="60.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="32" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="30" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -2040,259 +2049,259 @@
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="25.95">
       <c r="A4" s="8"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24">
       <c r="A5" s="8"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18">
+      <c r="J5" s="18"/>
+      <c r="K5" s="19">
         <v>1</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24">
       <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24">
       <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="16">
+      <c r="I7" s="17">
         <v>150</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
       <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
       <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="16">
+      <c r="I9" s="17">
         <v>9600</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
       <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24">
       <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24">
       <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24">
       <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24">
       <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24">
       <c r="A15" s="8"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="8"/>
@@ -2306,7 +2315,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/public/excel/data_streamer.xlsx
+++ b/public/excel/data_streamer.xlsx
@@ -191,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -211,6 +211,12 @@
       <sz val="16"/>
       <color rgb="FF696969"/>
       <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -273,12 +279,6 @@
       <sz val="13"/>
       <color rgb="FF505050"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -671,72 +671,75 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="11" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="11" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="11" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="9" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -758,19 +761,19 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -778,9 +781,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -794,13 +794,13 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="13" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="14" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="13" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="14" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="14" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="15" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -812,59 +812,59 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="14" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="14" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="15" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="15" applyFont="1" fillId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="14" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="14" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="15" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="15" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="15" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="15" applyFont="1" fillId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="13" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="14" applyFont="1" fillId="13" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="15" applyFont="1" fillId="13" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="15" applyFont="1" fillId="13" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,8 +881,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K22" displayName="TBL_HST" name="TBL_HST" id="1" totalsRowShown="0">
-  <autoFilter ref="A7:K22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:K5" displayName="TBL_CUR" name="TBL_CUR" id="1" totalsRowShown="0">
+  <autoFilter ref="A4:K5">
     <filterColumn hiddenButton="1" colId="0"/>
     <filterColumn hiddenButton="1" colId="1"/>
     <filterColumn hiddenButton="1" colId="2"/>
@@ -913,8 +913,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A4:K5" displayName="TBL_CUR" name="TBL_CUR" id="2" totalsRowShown="0">
-  <autoFilter ref="A4:K5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K22" displayName="TBL_HST" name="TBL_HST" id="2" totalsRowShown="0">
+  <autoFilter ref="A7:K22">
     <filterColumn hiddenButton="1" colId="0"/>
     <filterColumn hiddenButton="1" colId="1"/>
     <filterColumn hiddenButton="1" colId="2"/>
@@ -1254,7 +1254,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="75" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="45" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="46" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
@@ -1266,7 +1266,7 @@
     <col min="11" max="11" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="29.25">
       <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="6">
       <c r="A2" s="57" t="s">
         <v>35</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33.45">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="58" t="s">
         <v>36</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="64" t="s">
         <v>39</v>
       </c>
@@ -1838,133 +1838,133 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="45" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="46" width="0.2907142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="46" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="47" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="47" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="46" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="47" width="0.2907142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="47" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="30" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="49.95000000000001" customFormat="1" s="6">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="4.5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="42">
         <v>150</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="43">
         <v>150</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="4.5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="42">
         <v>15</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="43">
         <v>15</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="4.5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="42">
         <v>10</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="43">
         <v>10</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="4.5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="49.95000000000001" customFormat="1" s="6">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1998,7 +1998,7 @@
     <col min="9" max="9" style="32" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="31" width="60.71928571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="32" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="30" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="33" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
